--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -277,8 +277,8 @@
     <t xml:space="preserve">You become better at using your magic to help and heal others.</t>
   </si>
   <si>
-    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Protective \&amp; Healing spells
-You are able to use Protective and Healing magic which match your level in this skill.</t>
+    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Recuperationspells
+You are able to use Recuperation magic which match your level in this skill.</t>
   </si>
   <si>
     <t xml:space="preserve">Duplicitous</t>
@@ -1203,12 +1203,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1281,11 +1281,11 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="bottomRight" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -505,24 +505,7 @@
     <t xml:space="preserve">You can change your appearance at will.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Perform a CHR check. GM sets the difficulty dependent on the extent to which you must change your appearance, and the surrounding circumstances. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">(Single level skill)</t>
-    </r>
+    <t xml:space="preserve">Perform a CHR check. GM sets the difficulty dependent on the extent to which you must change your appearance, and the surrounding circumstances. (Single level skill)</t>
   </si>
   <si>
     <t xml:space="preserve">LVL 12 \\
@@ -773,36 +756,9 @@
     <t xml:space="preserve">You have cracked the nature of magic itself, and can design your own spells.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Once every 10/ 9 / 8 / 7 / 6 days, you may design your own spell (with GMs consent). The GM will decide the appropriate level and Fortitude costs. 
+    <t xml:space="preserve">Once every 10/ 9 / 8 / 7 / 6 days, you may design your own spell (with GMs consent). The GM will decide the appropriate level and Fortitude costs. 
 If you do not have the skills to cast it, the spell is created, but must be learned at a later date.
-Spells created by one character </t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
-        <sz val="9"/>
-        <rFont val="Century Schoolbook"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">can</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> by used by another, if appropriately learned.</t>
-    </r>
+Spells created by one character can by used by another, if appropriately learned.</t>
   </si>
   <si>
     <t xml:space="preserve">LVL 16</t>
@@ -1031,7 +987,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1053,32 +1009,6 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <name val="Century Schoolbook"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Century Schoolbook"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Century Schoolbook"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="9"/>
-      <name val="Century Schoolbook"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1088,34 +1018,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -1144,60 +1052,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1210,66 +1070,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF999999"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1281,17 +1081,17 @@
   <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="80.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="142.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="35.12"/>
@@ -1299,10 +1099,10 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
@@ -1315,45 +1115,45 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -1367,61 +1167,61 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="2" t="n">
+      <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="0" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -1434,130 +1234,130 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B9" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="0" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B10" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="s">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="B12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="s">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="B14" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="B15" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="1" t="n">
+      <c r="B16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
@@ -1570,28 +1370,28 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="s">
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="1" t="n">
+      <c r="B18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
@@ -1605,10 +1405,10 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
@@ -1622,10 +1422,10 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B20" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
@@ -1638,62 +1438,62 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="s">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
+      <c r="B21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C21" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="s">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
+      <c r="B22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="s">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="B23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B24" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
@@ -1706,28 +1506,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="s">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="0" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="1" t="n">
+      <c r="B26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
@@ -1740,198 +1540,198 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" s="3" t="s">
+      <c r="B27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2" t="s">
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="2" t="n">
+      <c r="B28" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="0" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2" t="s">
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="B30" s="2" t="n">
+      <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="0" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="B31" s="6" t="n">
+      <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="0" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="B32" s="6" t="n">
+      <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="0" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="B33" s="6" t="n">
+      <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="0" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B34" s="6" t="n">
+      <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="0" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="s">
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B35" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="0" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+    <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" s="7" t="s">
+      <c r="B36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B37" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="0" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B38" s="1" t="n">
+      <c r="B38" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C38" s="0" t="s">
@@ -1944,113 +1744,113 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C39" s="7" t="s">
+      <c r="B39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C39" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="0" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="B40" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C40" s="7" t="s">
+      <c r="B40" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C40" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B41" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B42" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" s="7" t="s">
+      <c r="B42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="11" t="s">
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B43" s="11" t="n">
+      <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B44" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C44" s="7" t="s">
+      <c r="B44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="0" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B45" s="1" t="n">
+      <c r="B45" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C45" s="0" t="s">
@@ -2063,113 +1863,113 @@
         <v>161</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="6" t="s">
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B46" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C46" s="7" t="s">
+      <c r="B46" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>165</v>
       </c>
-      <c r="B47" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C47" s="7" t="s">
+      <c r="B47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B48" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C48" s="7" t="s">
+      <c r="B48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D48" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>171</v>
       </c>
-      <c r="B49" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C49" s="7" t="s">
+      <c r="B49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="0" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="B50" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C50" s="7" t="s">
+      <c r="B50" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C50" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="0" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B51" s="6" t="n">
+      <c r="B51" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="0" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B52" s="1" t="n">
+      <c r="B52" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C52" s="0" t="s">
@@ -2182,28 +1982,28 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="42" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2" t="s">
+    <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B53" s="2" t="n">
+      <c r="B53" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="0" t="s">
         <v>185</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="0" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="1" t="n">
+      <c r="B54" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C54" s="0" t="s">
@@ -2217,27 +2017,27 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="0" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C55" s="7" t="s">
+      <c r="B55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="0" t="s">
         <v>193</v>
       </c>
-      <c r="E55" s="6" t="s">
+      <c r="E55" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B56" s="1" t="n">
+      <c r="B56" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C56" s="0" t="s">
@@ -2251,10 +2051,10 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="B57" s="1" t="n">
+      <c r="B57" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C57" s="0" t="s">
@@ -2268,10 +2068,10 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="1" t="n">
+      <c r="B58" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C58" s="0" t="s">
@@ -2285,10 +2085,10 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="0" t="s">
         <v>203</v>
       </c>
-      <c r="B59" s="1" t="n">
+      <c r="B59" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C59" s="0" t="s">
@@ -2301,79 +2101,79 @@
         <v>53</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B60" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C60" s="7" t="s">
+      <c r="B60" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>207</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="E60" s="6" t="s">
+      <c r="E60" s="0" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B61" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C61" s="7" t="s">
+      <c r="B61" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>211</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="0" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B62" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C62" s="7" t="s">
+      <c r="B62" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>215</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>217</v>
       </c>
-      <c r="B63" s="6" t="n">
+      <c r="B63" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="E63" s="6" t="s">
+      <c r="E63" s="0" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B64" s="1" t="n">
+      <c r="B64" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C64" s="0" t="s">
@@ -2386,62 +2186,62 @@
         <v>140</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
         <v>223</v>
       </c>
-      <c r="B65" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="0" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
+    <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B66" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C66" s="7" t="s">
+      <c r="B66" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="E66" s="6" t="s">
+      <c r="E66" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="37.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
+    <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="B67" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="0" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="0" t="s">
         <v>233</v>
       </c>
-      <c r="B68" s="1" t="n">
+      <c r="B68" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C68" s="0" t="s">
@@ -2454,164 +2254,164 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B69" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C69" s="7" t="s">
+      <c r="B69" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>237</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="0" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
+    <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B70" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="0" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="s">
+    <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
         <v>243</v>
       </c>
-      <c r="B71" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
+    <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B72" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C72" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E72" s="6" t="s">
+      <c r="E72" s="0" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="B73" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="B73" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="0" t="s">
         <v>251</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="0" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
+    <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B74" s="6" t="n">
+      <c r="B74" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="D74" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="0" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="0" t="s">
         <v>255</v>
       </c>
-      <c r="B75" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="0" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
+    <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B76" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C76" s="7" t="s">
+      <c r="B76" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="D76" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="0" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="s">
+    <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="B77" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="B77" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="0" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B78" s="1" t="n">
+      <c r="B78" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C78" s="0" t="s">
@@ -2624,28 +2424,28 @@
         <v>161</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="28.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="6" t="s">
+    <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
         <v>269</v>
       </c>
-      <c r="B79" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C79" s="7" t="s">
+      <c r="B79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="0" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B80" s="1" t="n">
+      <c r="B80" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C80" s="0" t="s">
@@ -2659,10 +2459,10 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="0" t="s">
         <v>275</v>
       </c>
-      <c r="B81" s="1" t="n">
+      <c r="B81" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C81" s="0" t="s">
@@ -2676,10 +2476,10 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B82" s="1" t="n">
+      <c r="B82" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C82" s="0" t="s">
@@ -2693,10 +2493,10 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="0" t="s">
         <v>281</v>
       </c>
-      <c r="B83" s="1" t="n">
+      <c r="B83" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C83" s="0" t="s">
@@ -2710,10 +2510,10 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B84" s="1" t="n">
+      <c r="B84" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C84" s="0" t="s">
@@ -2727,10 +2527,10 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="0" t="s">
         <v>287</v>
       </c>
-      <c r="B85" s="1" t="n">
+      <c r="B85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C85" s="0" t="s">
@@ -2744,10 +2544,10 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B86" s="1" t="n">
+      <c r="B86" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C86" s="0" t="s">
@@ -2761,10 +2561,10 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="0" t="s">
         <v>293</v>
       </c>
-      <c r="B87" s="1" t="n">
+      <c r="B87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C87" s="0" t="s">
@@ -2778,10 +2578,10 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B88" s="1" t="n">
+      <c r="B88" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C88" s="0" t="s">
@@ -2795,10 +2595,10 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="0" t="s">
         <v>299</v>
       </c>
-      <c r="B89" s="1" t="n">
+      <c r="B89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C89" s="0" t="s">

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="303">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Prerequisite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include</t>
   </si>
   <si>
     <t xml:space="preserve">Alchemist</t>
@@ -1078,14 +1081,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" activeCellId="0" sqref="F27"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="C90" activeCellId="0" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1114,1501 +1117,1768 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>157</v>
+        <v>158</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B46" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>133</v>
+        <v>134</v>
+      </c>
+      <c r="F63" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B64" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>140</v>
+        <v>141</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="F65" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B67" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="F67" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B68" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B69" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F69" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B70" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B71" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="F71" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B72" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B73" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
+      </c>
+      <c r="F75" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B77" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F77" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B78" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F78" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B79" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F79" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B80" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F83" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F84" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F85" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="F86" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F87" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B89" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F89" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="318">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -925,7 +925,7 @@
     <t xml:space="preserve">You have a number of spells that you use all the time, and as such, they come easily to you.</t>
   </si>
   <si>
-    <t xml:space="preserve">You may have 1/2/3/4/5 spells that are your `signature’. These spells must be one level below your current level in their respective fields, but you get a +3 casting check on these spells. </t>
+    <t xml:space="preserve">You may have 1/2/3 spells that are your `signature’. These spells must be one level below your current level in their respective fields, but you get a +3 casting check on these spells. </t>
   </si>
   <si>
     <t xml:space="preserve">Silent Magic</t>
@@ -935,7 +935,7 @@
   </si>
   <si>
     <t xml:space="preserve">Spells that normally require an incantation can be used silently.
-Silent magic checks suffer   -4 / - 3 / - 2 / - 1 / 0 penalty to all checks. </t>
+Silent magic checks suffer   -4 / - 2 / 0 penalty to all checks. </t>
   </si>
   <si>
     <t xml:space="preserve">Sorcerer</t>
@@ -973,8 +973,7 @@
     <t xml:space="preserve">Can perform magic without a wand.</t>
   </si>
   <si>
-    <t xml:space="preserve">May cast a spell without using a wand. All wandless magic is also silent but is only 50\% effective compared to the same spell with a wand.
-Can only cast spells which match your level in this skill.</t>
+    <t xml:space="preserve">May cast a spell without using a wand. All wandless magic is also silent. Wandless magic casting checks take a 50\% penalty.</t>
   </si>
   <si>
     <t xml:space="preserve">Adept Silent Magic</t>
@@ -1017,6 +1016,12 @@
   </si>
   <si>
     <t xml:space="preserve">Adept Battlemage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Focussed Caster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When interrupted (i.e. by taking damage) during a concentration spell, you may perform a d20 SPR(endurance) check (DV 14) to stay focussed. </t>
   </si>
 </sst>
 </file>
@@ -1102,12 +1107,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -1117,14 +1122,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F95"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A73" activeCellId="0" sqref="A73"/>
-      <selection pane="bottomRight" activeCell="D90" activeCellId="0" sqref="D90"/>
+      <selection pane="bottomRight" activeCell="A95" activeCellId="0" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2763,7 +2768,7 @@
         <v>284</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>285</v>
@@ -2780,7 +2785,7 @@
         <v>287</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C85" s="0" t="s">
         <v>288</v>
@@ -2843,12 +2848,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
         <v>299</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C89" s="0" t="s">
         <v>300</v>
@@ -2868,7 +2873,7 @@
         <v>303</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>304</v>
@@ -2942,6 +2947,20 @@
         <v>315</v>
       </c>
       <c r="F94" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B95" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="F95" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="160">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -93,12 +93,6 @@
 \\ 5: Complex weapons </t>
   </si>
   <si>
-    <t xml:space="preserve">Flying Lessons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At Beginner level, you become proficient in using broomsticks, and may use them to fly. Flight related checks gain a + 1 / 2 / 3 / 4 / 5 boost.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Catastrophic Critical</t>
   </si>
   <si>
@@ -176,6 +170,12 @@
     <t xml:space="preserve">Adept Battlemage</t>
   </si>
   <si>
+    <t xml:space="preserve">Flying Lessons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At Beginner level, you become proficient in using broomsticks, and may use them to fly. Flight related checks gain a + 1 / 2 / 3 / 4 / 5 boost.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Focussed Caster</t>
   </si>
   <si>
@@ -222,6 +222,12 @@
     <t xml:space="preserve">Adept Defender</t>
   </si>
   <si>
+    <t xml:space="preserve">Merciful</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may attempt to turn a lethal blow into a knockout strike. When performing an attack that would otherwise kill the target, perform a DV 6 FIN (Precision) check. If it passes, the target is knocked unconscious, rather than killed. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Metamorphmagus</t>
   </si>
   <si>
@@ -235,6 +241,12 @@
   </si>
   <si>
     <t xml:space="preserve">CHR &gt; 13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your speed increases by 1m</t>
   </si>
   <si>
     <t xml:space="preserve">Momentum Dodge</t>
@@ -338,7 +350,7 @@
     <t xml:space="preserve">Sleight of Hand</t>
   </si>
   <si>
-    <t xml:space="preserve">If a muggle catches you doing magic, perform a CHR (dexterity) check (difficulty 16) using sleight of hand to convince them that your magic is just trickery.</t>
+    <t xml:space="preserve">If a muggle catches you doing magic, perform a CHR (dexterity) check (DV 16) using sleight of hand to convince them that your magic is just trickery. You may also use this ability in combat to distract an opponent within 2m, causing the next attack on them to take Check Advantage on the damage-causing check. </t>
   </si>
   <si>
     <t xml:space="preserve">FIN &gt; 14</t>
@@ -351,6 +363,15 @@
 You are able to use Charms which match your skill in this skill.</t>
   </si>
   <si>
+    <t xml:space="preserve">Spellbinder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain a +1/2/3/4/5 point bonus on enchanting checks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adept Thaumaturge</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spellmaker</t>
   </si>
   <si>
@@ -361,6 +382,12 @@
     <t xml:space="preserve">Master in at least one school</t>
   </si>
   <si>
+    <t xml:space="preserve">Stabiliser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each level of this skill, you may nominate one check type (i.e. Illusion spellcasting, lockpicking, persuasion etc.). When performing a check of the nominated type, if possible you may choose to `split the roll’ and instead cast two die of half the nominated value, i.e. 2d10 instead of 1d20. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Surge</t>
   </si>
   <si>
@@ -381,6 +408,18 @@
   <si>
     <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Transfiguration spells \\
 You are able to use Transfiguration spells which match your level in this skill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool-User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a new tool to become proficient in. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tough as Nails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you gain this skill, your Max HP increases by an amount equal to twice your level. Thereafter, gain +2 to your max HP every time you level up.</t>
   </si>
   <si>
     <t xml:space="preserve">Undead Benefactor</t>
@@ -490,33 +529,6 @@
   </si>
   <si>
     <t xml:space="preserve">When the full Moon rises, you take the form of a mindless beast (controlled by the GM) for 12 hours, unless the Wolfsbane potion is taken.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellbinder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain a +1/2/3/4/5 point bonus on enchanting checks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adept Thaumaturge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool-User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a new tool to become proficient in. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Merciful</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may attempt to turn a lethal blow into a knockout strike. When performing an attack that would otherwise kill the target, perform a DV 6 FIN (Precision) check. If it passes, the target is knocked unconscious, rather than killed. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stabiliser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each level of this skill, you may nominate one check type (i.e. Illusion spellcasting, lockpicking, persuasion etc.). When performing a check of the nominated type, if possible you may choose to `split the roll’ and instead cast two die of half the nominated value, i.e. 2d10 instead of 1d20. </t>
   </si>
 </sst>
 </file>
@@ -621,25 +633,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E71"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="D61" activeCellId="0" sqref="D61"/>
+      <selection pane="bottomLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+      <selection pane="bottomRight" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.12"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -656,7 +668,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -673,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -690,7 +702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
@@ -707,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>14</v>
       </c>
@@ -721,7 +733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
@@ -738,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>19</v>
       </c>
@@ -755,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>21</v>
       </c>
@@ -769,55 +781,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D9" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>30</v>
       </c>
@@ -827,42 +839,42 @@
       <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D12" s="0" t="s">
+        <v>18</v>
+      </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>36</v>
       </c>
@@ -876,55 +888,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>38</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="D17" s="0" t="s">
+        <v>43</v>
+      </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>46</v>
       </c>
@@ -938,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>48</v>
       </c>
@@ -955,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>51</v>
       </c>
@@ -972,7 +984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>54</v>
       </c>
@@ -986,7 +998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>56</v>
       </c>
@@ -1003,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>58</v>
       </c>
@@ -1020,7 +1032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>61</v>
       </c>
@@ -1030,14 +1042,11 @@
       <c r="C25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>63</v>
       </c>
@@ -1047,577 +1056,632 @@
       <c r="C26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="B28" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="B29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B31" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" s="0" t="s">
         <v>77</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B33" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="B34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="D34" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B34" s="0" t="n">
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="0" t="n">
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B38" s="0" t="n">
+      <c r="C39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="C40" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
         <v>101</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="B41" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B43" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="E44" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>112</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="B47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="D47" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="B48" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="B49" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="E49" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="E50" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D51" s="0" t="s">
         <v>127</v>
       </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="E51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="B52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D52" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B53" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="E53" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="D54" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="E53" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="B55" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="D56" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="D55" s="0" t="s">
-        <v>139</v>
-      </c>
-      <c r="E55" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="D57" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="B58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="D58" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D59" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E58" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B59" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="B60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E59" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="D60" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="E60" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="E60" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="B61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B61" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="E61" s="0" t="n">
-        <v>1</v>
-      </c>
+      <c r="B62" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D62" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D63" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="0"/>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="0"/>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="0"/>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="0"/>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$61</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="155">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -55,31 +58,10 @@
     <t xml:space="preserve">Expert Thaumaturgy</t>
   </si>
   <si>
-    <t xml:space="preserve">Apparate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perform a SPR (willpower) check.
-Apparition difficulty is 18 / 17 / 15 / 15 / 12 / 12.
-If successful, character teleports to a region that they are intimately familiar with (Beginner), have visited before (Adept), or have heard of (Master).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adept Sorcerer</t>
-  </si>
-  <si>
     <t xml:space="preserve">Archer</t>
   </si>
   <si>
     <t xml:space="preserve">Use a 1d4/ 1d6 / 1d8  /1d10  /1d12 / 1d20 dice to determine your long range accuracy checks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battlemage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Hexes \&amp; Curses
-You are able to use Hexes \&amp; Curses which match your level in this skill.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto-gained at LVL 1</t>
   </si>
   <si>
     <t xml:space="preserve">Brawler</t>
@@ -93,17 +75,13 @@
 \\ 5: Complex weapons </t>
   </si>
   <si>
+    <t xml:space="preserve">Auto-gained at LVL 1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Catastrophic Critical</t>
   </si>
   <si>
-    <t xml:space="preserve">Upon a critical hit opportunity, roll a 1d 4 / 6 / 8 / 10 / 20. Multiply the damage by the outcome of this dice roll. This overrides the usual critical procedure. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clairvoyant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast diviniation spells
-You are able to use Divination spells which match your level in this skill.</t>
+    <t xml:space="preserve">Upon a critical hit opportunity, roll a 1d 4 / 6 / 8. Multiply the damage by the outcome of this dice roll. This overrides the usual critical procedure. </t>
   </si>
   <si>
     <t xml:space="preserve">Cleave</t>
@@ -121,13 +99,6 @@
     <t xml:space="preserve">Take check-advantage when performing a resist check against any Dark-Arts spells cast by a wizard with an EVL less than your character level</t>
   </si>
   <si>
-    <t xml:space="preserve">Defender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Recuperationspells
-You are able to use Recuperation magic which match your level in this skill.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Eagle-Eyed</t>
   </si>
   <si>
@@ -143,7 +114,7 @@
     <t xml:space="preserve">Emergency Care</t>
   </si>
   <si>
-    <t xml:space="preserve">You may take a major action to perform a {\it stabilization} action. Perform an EMP(healing) check (DV 15), if successful, remove the {\it Critical Condition} status and apply the {\it Critical but Stable} condition</t>
+    <t xml:space="preserve">You may take a major action to perform a {\it stabilization} action on a target you can touch. Perform a 1d20 INT check (DV 10), if successful, remove the {\it Critical Condition} status and apply the {\it Critical but Stable} condition</t>
   </si>
   <si>
     <t xml:space="preserve">Familiar</t>
@@ -173,7 +144,7 @@
     <t xml:space="preserve">Flying Lessons</t>
   </si>
   <si>
-    <t xml:space="preserve">At Beginner level, you become proficient in using broomsticks, and may use them to fly. Flight related checks gain a + 1 / 2 / 3 / 4 / 5 boost.</t>
+    <t xml:space="preserve">Gain the ability to fly a broomstick. </t>
   </si>
   <si>
     <t xml:space="preserve">Focussed Caster</t>
@@ -206,20 +177,71 @@
     <t xml:space="preserve">For each level of this skill, you can pick a new language to learn. Each language must be declared when levelling up. To learn Parseltongue, you require EVL to be greater than 4.</t>
   </si>
   <si>
-    <t xml:space="preserve">Magician</t>
+    <t xml:space="preserve">Extended Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each level of this skill, increase the range of spells by an additional 2m. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic: Battlemage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Malediction Spells
+You are able to use Malediction which match your level in this skill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic: Clairvoyant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast diviniation spells
+You are able to use Divination spells which match your level in this skill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic: Defender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Recuperation spells
+You are able to use Recuperation magic which match your level in this skill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic: Magician</t>
   </si>
   <si>
     <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Illusion spells
 You are able to use Illusion spells which match your level in this skill.</t>
   </si>
   <si>
+    <t xml:space="preserve">Magic: Necromancer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May use a 1d/6/8/10/12/20 die to cast Dark Arts spells.
+You can use Dark Arts spells which match your level in this skill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic: Sorcerer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Charms \\
+You are able to use Charms which match your skill in this skill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic: Thaumaturgus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Transfiguration spells \\
+You are able to use Transfiguration spells which match your level in this skill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magic: Withstand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resist checks may use a 1d6/8/10/12/20 dice. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Meditation</t>
   </si>
   <si>
-    <t xml:space="preserve">Fortitude regeneration gets a + 2 / 3 / 4 / 5 / 6 boost per turn where magic is not used. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adept Defender</t>
+    <t xml:space="preserve">For each level of this skill, increase the FP regeneration rate by 2FP per turn. </t>
   </si>
   <si>
     <t xml:space="preserve">Merciful</t>
@@ -231,7 +253,7 @@
     <t xml:space="preserve">Metamorphmagus</t>
   </si>
   <si>
-    <t xml:space="preserve">Perform a CHR check. GM sets the difficulty dependent on the extent to which you must change your appearance, and the surrounding circumstances.  </t>
+    <t xml:space="preserve">You may change your appearance at will. This acts as a free-cast concentration spell. Change two physical features for each turn concentration is maintained. You can only imitate human forms. </t>
   </si>
   <si>
     <t xml:space="preserve">Mimicry</t>
@@ -246,23 +268,22 @@
     <t xml:space="preserve">Mobile</t>
   </si>
   <si>
-    <t xml:space="preserve">Your speed increases by 1m</t>
+    <t xml:space="preserve">Your base speed increases by 1m</t>
   </si>
   <si>
     <t xml:space="preserve">Momentum Dodge</t>
   </si>
   <si>
-    <t xml:space="preserve">If you begin the phase behind cover, you may emerge from cover, take an action, and still be considered to be in an evasion phase, taking a 4 / 3 / 2 / 1 / 0 point penalty to the evasion check. \\ You may not move the next turn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH &gt; 10</t>
+    <t xml:space="preserve">Whenever you move, you may automatically trigger the `evade’ effect and add a Resist check to your Dodge value, without needing the movement to be `considered’. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATH &gt; 12</t>
   </si>
   <si>
     <t xml:space="preserve">Muggle Lover</t>
   </si>
   <si>
-    <t xml:space="preserve">All muggle-related checks get check-advantage.
-In addition, muggles are less likely to be suspicious of you.</t>
+    <t xml:space="preserve">You may add your Expertise bonus to any persuasion, deception, perception or knowledge check relating to muggles. </t>
   </si>
   <si>
     <t xml:space="preserve">Musician</t>
@@ -275,13 +296,6 @@
     <t xml:space="preserve">Performance &gt; 0</t>
   </si>
   <si>
-    <t xml:space="preserve">Necromancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May use a 1d/6/8/10/12/20 die to cast Dark Arts spells.
-You can use Dark Arts spells which match your level in this skill.</t>
-  </si>
-  <si>
     <t xml:space="preserve">On the Ball</t>
   </si>
   <si>
@@ -325,10 +339,10 @@
     <t xml:space="preserve">Shadow Walker</t>
   </si>
   <si>
-    <t xml:space="preserve">Every movement is considered as an Evasion Action, choosing to take an Evasive action grants check-advantage to evvasion check.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stealth $&gt;3$</t>
+    <t xml:space="preserve">You may add your Expertise bonus to your Dodge value whenever taking a `considered movment’. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stealth $&gt;2$</t>
   </si>
   <si>
     <t xml:space="preserve">Signature Spell</t>
@@ -356,116 +370,10 @@
     <t xml:space="preserve">FIN &gt; 14</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorcerer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Charms \\
-You are able to use Charms which match your skill in this skill.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellbinder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain a +1/2/3/4/5 point bonus on enchanting checks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adept Thaumaturge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellmaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once per week, you may design your own spell (with GMs consent) by taking 1 hour. The GM will decide the appropriate type, level, DV and FP costs.The spell must be in a school you a Master in, and you must successfully cast it within three attempts for the spellmaking to be successful. 
-If successful, the spellmaker memorises the spell. They may also transcribe the spell onto paper (1 major action) so others can book-cast it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Master in at least one school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stabiliser</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each level of this skill, you may nominate one check type (i.e. Illusion spellcasting, lockpicking, persuasion etc.). When performing a check of the nominated type, if possible you may choose to `split the roll’ and instead cast two die of half the nominated value, i.e. 2d10 instead of 1d20. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may take one extra major action in your turn. This skill cannot be used again until you rest for 4+ hours. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terrifying</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All enemies perform a SPR (endurance) Resist check, whilst you perform a POW/EVL (intimidate) check (whichever is larger). If the check fails, target acquires {\it Terrified} status.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POW $&gt;14$ or EVL $&gt;6$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thaumaturgus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Transfiguration spells \\
-You are able to use Transfiguration spells which match your level in this skill.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tool-User</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a new tool to become proficient in. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tough as Nails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you gain this skill, your Max HP increases by an amount equal to twice your level. Thereafter, gain +2 to your max HP every time you level up.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undead Benefactor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Healing spells work on the undead. 
- </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Novice Defender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wandless Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May cast a spell without using a wand. All wandless magic is also silent. Wandless magic casting checks take a 50\% penalty, unless used by a non-human species. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adept Silent Magic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protective spells and wards get a +2 / 3 / 4 / 5 / 6 bonus to their effectiveness.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weak Spot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attacks when an opponent’s armour is still intact get a +4 bonus.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precision $&gt;2$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Withstand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resist checks may use a 1d6/8/10/12/20 dice. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Species: Behind the Scenes</t>
   </si>
   <si>
-    <t xml:space="preserve">Stealth Proficiency gets +3 bonus. Your small stature means that all attacks on you are considered `precision' shots.</t>
+    <t xml:space="preserve">Stealth Proficiency gets +3 bonus. Your small statur means your base dodge value is increased to 7+FIN modifier</t>
   </si>
   <si>
     <t xml:space="preserve">House-Elf Species Ability</t>
@@ -475,7 +383,7 @@
   </si>
   <si>
     <t xml:space="preserve">You are susceptible to Celestial Damage. Wounds caused by silver or blessed weapons do double damage.
-Prolongued (greater than 1 second) with silver does 5d8 Celestial damage (for vampires, this also extends to garlic, holy water and crucifixes).</t>
+Prolongued (greater than 1 second) contact with silver does 1d8 Celestial damage (for vampires, this also extends to garlic, holy water and crucifixes) per second (3d8 per round). Shorter contact causes the skin to smoke and causes incredible pain. </t>
   </si>
   <si>
     <t xml:space="preserve">Vampire and Werewolf Species Ability</t>
@@ -504,7 +412,7 @@
     <t xml:space="preserve">Species: Night\apos{}s Child</t>
   </si>
   <si>
-    <t xml:space="preserve">Gain a permanent nightvision bonus, but become susceptible to the sun. For every minute you spend exposed to sunlight, suffer a 1-point penalty to ATH, SPR and POW (min 0). </t>
+    <t xml:space="preserve">Gain a permanent nightvision bonus, but become susceptible to the sun. For every minute you spend exposed to sunlight, suffer a 1-point penalty to ATH, SPR and POW (min 0), which is only restored by feeding on fresh blood. After reaching zero, you take 5d4 Celestial damage per minute. </t>
   </si>
   <si>
     <t xml:space="preserve">Vampire Species Ability</t>
@@ -531,13 +439,81 @@
     <t xml:space="preserve">When the full Moon rises, you take the form of a mindless beast (controlled by the GM) for 12 hours, unless the Wolfsbane potion is taken.</t>
   </si>
   <si>
-    <t xml:space="preserve">Longsighted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may treat all `short range’ spells as ‘sight-range’ when cast as a full major action. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN &gt; 12</t>
+    <t xml:space="preserve">Spellmaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once per week, you may design your own spell (with GMs consent) by taking 1 hour. The GM will decide the appropriate type and level.The spell must be in a school you are an Expert in, and you must successfully cast it within three attempts for the spellmaking to be successful. 
+If successful, the spellmaker memorises the spell. They may also transcribe the spell onto paper (1 major action) so others can book-cast it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expert in at least one school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stabiliser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each level of this skill, you may nominate one check type (i.e. Illusion spellcasting, lockpicking, persuasion etc.). When performing a check of the nominated type, if possible you may choose to `split the roll’ and instead cast two die of half the nominated value, i.e. 2d10 instead of 1d20. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may take one extra major action in your turn. This skill cannot be used again until you rest for 4+ hours. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terrifying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All enemies perform a SPR (endurance) Resist check, whilst you perform a POW/EVL (intimidate) check (whichever is larger). If the check fails, target acquires {\it Terrified} status.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POW $&gt;14$ or EVL $&gt;6$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tool-User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a new tool to become proficient in. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tough as Nails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you gain this skill, your Max HP increases by an amount equal to twice your level. Thereafter, gain +2 to your max HP every time you level up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undead Benefactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healing spells work on the undead. 
+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novice Defender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wandless Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">May cast a spell without using a wand. All wandless magic is also silent. You may only cast spells one level below your current one as wandless. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beginner Silent Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weak Spot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an opponent uses the `brace’ instinct, you gain check advantage on the accuracy check. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precision $&gt;2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickloose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may use ranged physial weapons whilst performing a `considered movement\apos{}, using the usual Quickspell rules. </t>
   </si>
 </sst>
 </file>
@@ -612,13 +588,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -637,48 +617,50 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B50" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A49" activeCellId="0" sqref="A49"/>
-      <selection pane="bottomRight" activeCell="B65" activeCellId="0" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
@@ -695,7 +677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>8</v>
       </c>
@@ -712,103 +694,97 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="0" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="E7" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>25</v>
       </c>
@@ -818,629 +794,635 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="E10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="E12" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="D13" s="0" t="s">
+        <v>34</v>
+      </c>
       <c r="E13" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="D16" s="0" t="s">
+        <v>41</v>
+      </c>
       <c r="E16" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
+        <v>5</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="3" t="s">
         <v>52</v>
       </c>
       <c r="D21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B22" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="B23" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="B24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="B25" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="D25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="B26" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="D26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E27" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="E30" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="B31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="D31" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="E31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="B32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="E32" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="D33" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B32" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="E33" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="E34" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B35" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="D35" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="E35" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B36" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="E36" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="B37" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="D37" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B36" s="0" t="n">
+      <c r="E37" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="D39" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="E39" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="0" t="n">
+      <c r="E40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" s="0" t="n">
+      <c r="C42" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="C43" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="E43" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B43" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="D44" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="E44" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D45" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="E45" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="D46" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="E46" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="D47" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="E47" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="D48" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="B48" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="E48" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="D48" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="0" t="s">
         <v>122</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>123</v>
       </c>
@@ -1450,18 +1432,21 @@
       <c r="C50" s="1" t="s">
         <v>124</v>
       </c>
+      <c r="D50" s="0" t="s">
+        <v>122</v>
+      </c>
       <c r="E50" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>125</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="1" t="s">
         <v>126</v>
       </c>
       <c r="D51" s="0" t="s">
@@ -1471,162 +1456,156 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>128</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="1" t="s">
         <v>129</v>
       </c>
       <c r="D52" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="B53" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="0" t="s">
         <v>132</v>
       </c>
       <c r="E53" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>133</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="E54" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B55" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E55" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="E55" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="B56" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="E56" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="B57" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="E57" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="B58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E57" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="E58" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="D59" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="E58" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="76.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="E59" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="B60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="D60" s="0" t="s">
         <v>149</v>
       </c>
-      <c r="E59" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="E60" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
+      <c r="B61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E60" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>152</v>
@@ -1635,58 +1614,25 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B62" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E62" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="B63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D63" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="E63" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="E64" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A1:E61"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1694,5 +1640,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="157">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -514,6 +514,12 @@
   </si>
   <si>
     <t xml:space="preserve">You may use ranged physial weapons whilst performing a `considered movement\apos{}, using the usual Quickspell rules. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When performing an accuracy check, you may add a bonus to the check equal to the amount that the spellcasting check exceeds the difficulty value. </t>
   </si>
 </sst>
 </file>
@@ -629,9 +635,9 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B50" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="B51" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C62" activeCellId="0" sqref="C62"/>
+      <selection pane="bottomLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1625,6 +1631,20 @@
         <v>154</v>
       </c>
       <c r="E62" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E63" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -11,7 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$E$61</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$70</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$57</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$55</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="173">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -37,7 +39,10 @@
     <t xml:space="preserve">Prerequisite</t>
   </si>
   <si>
-    <t xml:space="preserve">Include</t>
+    <t xml:space="preserve">Always Alert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain check advantage on Perception checks made to detect the presence of enemies. You also gain advantage on Resist checks made to avoid or resist both magical and mundane traps. </t>
   </si>
   <si>
     <t xml:space="preserve">Ambidextrous</t>
@@ -58,30 +63,25 @@
     <t xml:space="preserve">Expert Thaumaturgy</t>
   </si>
   <si>
-    <t xml:space="preserve">Archer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use a 1d4/ 1d6 / 1d8  /1d10  /1d12 / 1d20 dice to determine your long range accuracy checks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brawler</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can perform non-magical melee attacks. Each level unlocks a different type of combat: 
-\\ 1: Unarmed combat 
-\\ 2: Small melee weapons (daggers, knives) 
-\\ 3: One handed melee weapons (swords, spears, axes) 
-\\ 4:  Two-handed melee weapons (warhammer, battleaxes, broadsword) 
-\\ 5: Complex weapons </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auto-gained at LVL 1</t>
+    <t xml:space="preserve">Basic Weapons Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are considered proficient in the use of simple melee weapons such as daggers, quarterstaff and spears. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battlecry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may take a major action to perform a battlecry, inspiring your allies. Choose 2d4 allies in hearing range, and restore FP equal to twice your character level. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHR $&gt;13$</t>
   </si>
   <si>
     <t xml:space="preserve">Catastrophic Critical</t>
   </si>
   <si>
-    <t xml:space="preserve">Upon a critical hit opportunity, roll a 1d 4 / 6 / 8. Multiply the damage by the outcome of this dice roll. This overrides the usual critical procedure. </t>
+    <t xml:space="preserve">Upon a critical hit opportunity, roll a 1d4 /6/10. Multiply the damage by the outcome of this dice roll. This overrides the usual critical procedure. </t>
   </si>
   <si>
     <t xml:space="preserve">Cleave</t>
@@ -102,19 +102,25 @@
     <t xml:space="preserve">Eagle-Eyed</t>
   </si>
   <si>
-    <t xml:space="preserve">Increases the effective range of your vision by 50\%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elegant Avoidance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Can use either ATH(Speed) or FIN(precision) attribute to perform evasion checks. </t>
+    <t xml:space="preserve">Increases the effective range of your vision by 50\% in all conditions.</t>
   </si>
   <si>
     <t xml:space="preserve">Emergency Care</t>
   </si>
   <si>
     <t xml:space="preserve">You may take a major action to perform a {\it stabilization} action on a target you can touch. Perform a 1d20 INT check (DV 10), if successful, remove the {\it Critical Condition} status and apply the {\it Critical but Stable} condition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exotic Fighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are considered proficient in the use of unusual weapons, such as whips, scythes, tridents and so on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For each level of this skill, increase the range of spells by an additional 2m. </t>
   </si>
   <si>
     <t xml:space="preserve">Familiar</t>
@@ -141,6 +147,12 @@
     <t xml:space="preserve">Adept Battlemage</t>
   </si>
   <si>
+    <t xml:space="preserve">Fighting Dirty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are used to winning a fight by any means necessary. You are considered proficient in bare-handed fighting and in the use of improvised weapons. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Flying Lessons</t>
   </si>
   <si>
@@ -150,7 +162,7 @@
     <t xml:space="preserve">Focussed Caster</t>
   </si>
   <si>
-    <t xml:space="preserve">When interrupted (i.e. by taking damage) during a concentration spell, you may perform a d20 SPR(endurance) check (DV 14) to stay focussed. </t>
+    <t xml:space="preserve">When interrupted (i.e. by taking damage) during a concentration spell, you may perform a d20 SPR(endurance) check (DV 10) to stay focussed. </t>
   </si>
   <si>
     <t xml:space="preserve">Golden Touch</t>
@@ -162,13 +174,40 @@
     <t xml:space="preserve">CHR $&gt;10$</t>
   </si>
   <si>
+    <t xml:space="preserve">Hulk Smash?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are considered proficient in the use of brute-force weapons such as axes, hammers and maces. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increased Accuracy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an accuracy check results in a value less than your FIN stat, plus the precision proficiency, you may instead use that value.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIN $&gt; 12$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instinctive Retribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When attacked, you may sacrifice your Instinct reaction (guaranteeing all attacks made against you this turn will hit) to retaliate against one attacker. Make an attack action against one agressor as if you had a free major action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ironclad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain proficiency with armour. When taken a second time, this skill reduces bludgeoning, slashing and piercing damage taken by an amount equal to your Expertise bonus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATH $&gt; 15$</t>
+  </si>
+  <si>
     <t xml:space="preserve">Knife Handler</t>
   </si>
   <si>
-    <t xml:space="preserve">Bladed weapons do + 1 / 2 / 3 / 4 / 5 damage, and they last twice as long before becoming dull. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LVL 2</t>
+    <t xml:space="preserve">You have sharpened your blades to a razor. Bladed weapons do an additional 1d4 damage for every level of this skill taken. </t>
   </si>
   <si>
     <t xml:space="preserve">Linguist</t>
@@ -177,17 +216,20 @@
     <t xml:space="preserve">For each level of this skill, you can pick a new language to learn. Each language must be declared when levelling up. To learn Parseltongue, you require EVL to be greater than 4.</t>
   </si>
   <si>
-    <t xml:space="preserve">Extended Range</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each level of this skill, increase the range of spells by an additional 2m. </t>
+    <t xml:space="preserve">Long Range Threat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are considered proficient in the use of more complex ranged weapons: bows, crossbows, and firearms. </t>
   </si>
   <si>
     <t xml:space="preserve">Magic: Battlemage</t>
   </si>
   <si>
     <t xml:space="preserve">May use a 1d6/8/10/12/20 die to cast Malediction Spells
-You are able to use Malediction which match your level in this skill.</t>
+You are able to use Malediction spells which match your level in this skill.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auto-gained at LVL 1</t>
   </si>
   <si>
     <t xml:space="preserve">Magic: Clairvoyant</t>
@@ -250,19 +292,22 @@
     <t xml:space="preserve">You may attempt to turn a lethal blow into a knockout strike. When performing an attack that would otherwise kill the target, perform a DV 6 FIN (Precision) check. If it passes, the target is knocked unconscious, rather than killed. </t>
   </si>
   <si>
-    <t xml:space="preserve">Metamorphmagus</t>
+    <t xml:space="preserve">Species: Metamorphmagus</t>
   </si>
   <si>
     <t xml:space="preserve">You may change your appearance at will. This acts as a free-cast concentration spell. Change two physical features for each turn concentration is maintained. You can only imitate human forms. </t>
   </si>
   <si>
+    <t xml:space="preserve">Metamorphmagus Species Skill</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mimicry</t>
   </si>
   <si>
     <t xml:space="preserve">You can mimic the voice of another sapient, or the call of an animal, provided you have heard them for at least 1 minute previously. </t>
   </si>
   <si>
-    <t xml:space="preserve">CHR &gt; 13</t>
+    <t xml:space="preserve">CHR $&gt; 13$</t>
   </si>
   <si>
     <t xml:space="preserve">Mobile</t>
@@ -271,13 +316,13 @@
     <t xml:space="preserve">Your base speed increases by 1m</t>
   </si>
   <si>
-    <t xml:space="preserve">Momentum Dodge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Whenever you move, you may automatically trigger the `evade’ effect and add a Resist check to your Dodge value, without needing the movement to be `considered’. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ATH &gt; 12</t>
+    <t xml:space="preserve">Moving Target </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whenever you move, you may automatically trigger the `evade’ effect and add a Resist check and your Speed Proficiency to your Dodge value, without needing the movement to be `considered’. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATH $&gt; 12$</t>
   </si>
   <si>
     <t xml:space="preserve">Muggle Lover</t>
@@ -293,13 +338,7 @@
 Using Silent Casting negates this effect.</t>
   </si>
   <si>
-    <t xml:space="preserve">Performance &gt; 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">On the Ball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get 10 / 15 / 20 / 25 / 30 seconds to make a decision about a counterspell, rather than the usual 5</t>
+    <t xml:space="preserve">Performance $&gt; 0$</t>
   </si>
   <si>
     <t xml:space="preserve">Overcome Resistance</t>
@@ -314,20 +353,25 @@
     <t xml:space="preserve">Parry</t>
   </si>
   <si>
-    <t xml:space="preserve">Acts in place of a counterspell in close range physical combat. The attacker and defender both perform an ATH (strength) check (with weapon modifiers). If the defender succeeds, the attack fails. 
-  </t>
+    <t xml:space="preserve">When you have a weapon equipped which you are proficient in, you may your Expertise bonus to your base Block stat. </t>
   </si>
   <si>
     <t xml:space="preserve">Novice Brawler</t>
   </si>
   <si>
-    <t xml:space="preserve">Proficiency Boost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose one proficiency associated with an attribute with a score &gt; 10. Increase that proficiency by 1. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Various</t>
+    <t xml:space="preserve">Power Attack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may choose to devote extra strength to an attack, at the expense of reduced accuracy, akin to spell Power Points. When performing a melee attack, choose a number between 0, and your ATH modifier, plus your strength proficiency. Deduct this from your accuracy check, but if the attack hits, add twice this value to the damage check. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strength $&gt;1$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quickloose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may use ranged physial weapons whilst performing a `considered movement\apos{}, using the usual Quickspell rules. </t>
   </si>
   <si>
     <t xml:space="preserve">Raw Power</t>
@@ -336,6 +380,15 @@
     <t xml:space="preserve">Once per day, may use perform a POW check to cast a spell, rather than the specified check, at the cost of doubling the FP cost of the cast.  </t>
   </si>
   <si>
+    <t xml:space="preserve">Sentinel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the beginning of a combat encounter, you may designate 1d4 targets that you are always aware of. You are immune to oppotrunity attacks from these targets, until they peform a successful Hide action. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PER $&gt;13$</t>
+  </si>
+  <si>
     <t xml:space="preserve">Shadow Walker</t>
   </si>
   <si>
@@ -348,7 +401,7 @@
     <t xml:space="preserve">Signature Spell</t>
   </si>
   <si>
-    <t xml:space="preserve">You may have 1/2/3 spells that are your `signature’. These spells must be one level below your current level in their respective fields, but you get a +3 casting check on these spells. </t>
+    <t xml:space="preserve">For every level taken in this skill, designate a spell which is your `signature’. These spells must be one level below your current level in their respective fields, but you get a +3 casting check on these spells. </t>
   </si>
   <si>
     <t xml:space="preserve">Novice in at least one school</t>
@@ -361,13 +414,10 @@
 Silent magic checks suffer   -4 / - 2 / 0 penalty to all checks. </t>
   </si>
   <si>
-    <t xml:space="preserve">Sleight of Hand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If a muggle catches you doing magic, perform a CHR (dexterity) check (DV 16) using sleight of hand to convince them that your magic is just trickery. You may also use this ability in combat to distract an opponent within 2m, causing the next attack on them to take Check Advantage on the damage-causing check. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIN &gt; 14</t>
+    <t xml:space="preserve">Simple Ranged Training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are considered proficient in the use of simple ranged weapons: blowdarts, slings and improvised tools. </t>
   </si>
   <si>
     <t xml:space="preserve">Species: Behind the Scenes</t>
@@ -442,8 +492,8 @@
     <t xml:space="preserve">Spellmaker</t>
   </si>
   <si>
-    <t xml:space="preserve">Once per week, you may design your own spell (with GMs consent) by taking 1 hour. The GM will decide the appropriate type and level.The spell must be in a school you are an Expert in, and you must successfully cast it within three attempts for the spellmaking to be successful. 
-If successful, the spellmaker memorises the spell. They may also transcribe the spell onto paper (1 major action) so others can book-cast it.</t>
+    <t xml:space="preserve">Once per week, you may design your own spell (with GMs consent) by taking a full day to research it. The GM will decide the appropriate type and level.The spell must be in a school you are an Expert in, and you must successfully cast it within three attempts for the spellmaking to be successful. 
+If successful, the spellmaker memorises the spell. They may also transcribe the spell onto paper so others can book-cast it.</t>
   </si>
   <si>
     <t xml:space="preserve">Expert in at least one school</t>
@@ -452,7 +502,7 @@
     <t xml:space="preserve">Stabiliser</t>
   </si>
   <si>
-    <t xml:space="preserve">For each level of this skill, you may nominate one check type (i.e. Illusion spellcasting, lockpicking, persuasion etc.). When performing a check of the nominated type, if possible you may choose to `split the roll’ and instead cast two die of half the nominated value, i.e. 2d10 instead of 1d20. </t>
+    <t xml:space="preserve">For each level of this skill, you may nominate one check type (i.e. Illusion spellcasting, lockpicking, persuasion etc.). When performing a check of the nominated type, if possible you may choose to `split the roll\apos{} and instead cast two die of half the nominated value, i.e. 2d10 instead of 1d20. </t>
   </si>
   <si>
     <t xml:space="preserve">Surge</t>
@@ -461,10 +511,16 @@
     <t xml:space="preserve">You may take one extra major action in your turn. This skill cannot be used again until you rest for 4+ hours. </t>
   </si>
   <si>
+    <t xml:space="preserve">Swordfighter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are considered proficient in the use of larger bladed weapons: swords, rapiers and greatswords. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Terrifying</t>
   </si>
   <si>
-    <t xml:space="preserve">All enemies perform a SPR (endurance) Resist check, whilst you perform a POW/EVL (intimidate) check (whichever is larger). If the check fails, target acquires {\it Terrified} status.</t>
+    <t xml:space="preserve">All enemies perform a SPR Resist check, whilst you perform a POW or EVL (intimidate) check (whichever is larger). If the check fails, target acquires {\it Terrified} status.</t>
   </si>
   <si>
     <t xml:space="preserve">POW $&gt;14$ or EVL $&gt;6$</t>
@@ -508,18 +564,6 @@
   </si>
   <si>
     <t xml:space="preserve">Precision $&gt;2$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quickloose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may use ranged physial weapons whilst performing a `considered movement\apos{}, using the usual Quickspell rules. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increased Accuracy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When performing an accuracy check, you may add a bonus to the check equal to the amount that the spellcasting check exceeds the difficulty value. </t>
   </si>
 </sst>
 </file>
@@ -632,24 +676,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="B51" activePane="bottomLeft" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="B57" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D63" activeCellId="0" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="0" width="8.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,352 +707,274 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>16</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="B12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="0" t="n">
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="D15" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="B16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="D21" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C21" s="3" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1017,14 +984,8 @@
       <c r="B24" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1034,121 +995,103 @@
       <c r="B25" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>61</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>74</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>1</v>
+      <c r="D32" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1156,503 +1099,496 @@
         <v>76</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="D34" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="B35" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C35" s="3" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C37" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="D38" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>1</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="B42" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="D42" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="E41" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="D44" s="0" t="s">
         <v>105</v>
       </c>
-      <c r="B44" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C44" s="3" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="D45" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
         <v>109</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="E45" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E46" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
+      <c r="D48" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D47" s="0" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="D49" s="0" t="s">
         <v>118</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E49" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="E50" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="B52" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E51" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="D53" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
         <v>129</v>
       </c>
-      <c r="D52" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="B54" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="3" t="s">
+      <c r="D54" s="0" t="s">
         <v>131</v>
       </c>
-      <c r="D53" s="0" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="E53" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="B55" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B54" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="D55" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+    </row>
+    <row r="56" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
         <v>135</v>
       </c>
-      <c r="B55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="B56" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="E55" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="D56" s="0" t="s">
         <v>137</v>
       </c>
-      <c r="B56" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C56" s="3" t="s">
+    </row>
+    <row r="57" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E56" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="D57" s="0" t="s">
         <v>140</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" s="0" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
         <v>143</v>
       </c>
-      <c r="E58" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="B59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3" t="s">
+      <c r="D59" s="0" t="s">
         <v>145</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="E59" s="0" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="D60" s="0" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="B61" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="E60" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="D61" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="B62" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E61" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
         <v>153</v>
       </c>
-      <c r="B62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="B63" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="E62" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
+      <c r="B64" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E63" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
+    <row r="65" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D65" s="0" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="B67" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>172</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:E61"/>
+  <autoFilter ref="A1:D70"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24AEE9EB-DC6C-4555-B682-FA76047AA653}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49791D81-EEF9-4ABE-8278-B1A1D91E8C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="180">
   <si>
     <t>Name</t>
   </si>
@@ -218,9 +218,6 @@
   </si>
   <si>
     <t>Overcome Resistance</t>
-  </si>
-  <si>
-    <t>Beginner Battlemage</t>
   </si>
   <si>
     <t>Parry</t>
@@ -423,9 +420,6 @@
   <si>
     <t>Replace your wand with your music: perform all illusion \&amp; protective magic with your instrument of choice\comma{} using a CHR (performance) check. Spells take 2 turns to cast in this fashion. 
 Using Silent Casting negates this effect.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choose a damage type: fire\comma{} cold\comma{} electric\comma{} necrotic and celestial. You may ignore any resistance below 100\% to this type. Every time you take this skill again\comma{} choose a different damage type. </t>
   </si>
   <si>
     <t xml:space="preserve">When you have a weapon equipped which you are proficient in\comma{} you may add your Expertise bonus to your base Block stat against physical attacks. Barehanded strikes which are successfully blocked do 1d4 damage to the attacker. </t>
@@ -581,6 +575,18 @@
 {\bf Owl:} +1 to INT attribute\\
 {\bf Toad:} +2 to poison resist and identification checks \\
 {\bf Rat:} +1 to resist checks</t>
+  </si>
+  <si>
+    <t>Elemental Master</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When casting one of the {\it Control} spells, you may maintain a chosen effect without further FP cost. The relevant FP cost is only deducted when adding a new effect into the spell. </t>
+  </si>
+  <si>
+    <t>Adept Sorcerer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose a damage type. You may ignore any resistance below 100\% to this type. Every time you take this skill again\comma{} choose a different damage type. </t>
   </si>
 </sst>
 </file>
@@ -938,11 +944,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -988,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -999,7 +1005,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1007,16 +1013,16 @@
     </row>
     <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1027,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1038,7 +1044,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1052,7 +1058,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1063,7 +1069,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1074,18 +1080,18 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1096,18 +1102,18 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1118,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1129,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1140,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1151,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1163,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1199,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1210,7 +1216,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D22" t="s">
         <v>28</v>
@@ -1224,18 +1230,18 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1246,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D25" t="s">
         <v>31</v>
@@ -1260,7 +1266,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1271,7 +1277,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
         <v>34</v>
@@ -1296,7 +1302,7 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1307,7 +1313,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1318,7 +1324,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D31" t="s">
         <v>40</v>
@@ -1332,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D32" t="s">
         <v>40</v>
@@ -1346,7 +1352,7 @@
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D33" t="s">
         <v>40</v>
@@ -1360,7 +1366,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D34" t="s">
         <v>40</v>
@@ -1374,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D35" t="s">
         <v>40</v>
@@ -1388,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D36" t="s">
         <v>40</v>
@@ -1402,7 +1408,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D37" t="s">
         <v>40</v>
@@ -1416,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D38" t="s">
         <v>40</v>
@@ -1430,7 +1436,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1441,7 +1447,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1452,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D41" t="s">
         <v>53</v>
@@ -1477,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D43" t="s">
         <v>57</v>
@@ -1491,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1502,201 +1508,198 @@
         <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>60</v>
       </c>
       <c r="B46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" t="s">
-        <v>61</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" t="s">
         <v>62</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" t="s">
         <v>67</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" t="s">
         <v>76</v>
-      </c>
-      <c r="D57" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" t="s">
         <v>78</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D59" t="s">
         <v>80</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D59" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" t="s">
         <v>82</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B61">
         <v>1</v>
@@ -1710,188 +1713,202 @@
     </row>
     <row r="62" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D62" t="s">
         <v>84</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D64" t="s">
         <v>87</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D64" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D66" t="s">
         <v>90</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D66" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>92</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" t="s">
         <v>98</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" t="s">
         <v>101</v>
-      </c>
-      <c r="D73" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>176</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D77" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49791D81-EEF9-4ABE-8278-B1A1D91E8C07}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3981DF9-7B0F-4FE2-BBF4-60EB4BA31B0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="182">
   <si>
     <t>Name</t>
   </si>
@@ -104,9 +104,6 @@
   </si>
   <si>
     <t>Fighting Dirty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are used to winning a fight by any means necessary. You are considered proficient in bare-handed fighting and in the use of improvised weapons. </t>
   </si>
   <si>
     <t>Flying Lessons</t>
@@ -587,6 +584,15 @@
   </si>
   <si>
     <t xml:space="preserve">Choose a damage type. You may ignore any resistance below 100\% to this type. Every time you take this skill again\comma{} choose a different damage type. </t>
+  </si>
+  <si>
+    <t>Superhero Landing</t>
+  </si>
+  <si>
+    <t>Increase ATH attribute by 1, and hone your instincts such that you always land on your feet when falling or thrown (and strike a cool pose when doing so).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are used to winning a fight by any means necessary. You are considered proficient in bare-handed fighting and in the use of improvised weapons. Barehanded strikes do 1d4 damage. </t>
   </si>
 </sst>
 </file>
@@ -944,11 +950,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -994,7 +1000,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1005,7 +1011,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1013,16 +1019,16 @@
     </row>
     <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1033,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1044,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -1058,7 +1064,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1069,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1080,18 +1086,18 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1102,18 +1108,18 @@
         <v>1</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1124,7 +1130,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1135,7 +1141,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1146,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1157,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -1169,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1183,732 +1189,743 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>23</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21">
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D22" t="s">
         <v>27</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" t="s">
         <v>30</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B32">
         <v>5</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39">
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
         <v>52</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" t="s">
         <v>56</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D43" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B45">
         <v>5</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" t="s">
         <v>61</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D47" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" t="s">
         <v>66</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D52" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" t="s">
         <v>75</v>
-      </c>
-      <c r="D57" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D58" t="s">
         <v>77</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D58" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D59" t="s">
         <v>79</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D60" t="s">
         <v>81</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D60" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" t="s">
         <v>83</v>
-      </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D63" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
+        <v>85</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D64" t="s">
         <v>86</v>
-      </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D64" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D65" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" t="s">
         <v>89</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D66" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B67">
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>91</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>96</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" t="s">
         <v>97</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D72" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>98</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" s="3" t="s">
+      <c r="D73" t="s">
         <v>100</v>
-      </c>
-      <c r="D73" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B75">
-        <v>1</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" t="s">
         <v>177</v>
       </c>
-      <c r="D77" t="s">
-        <v>178</v>
+    </row>
+    <row r="78" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB170329-2475-40DD-ADA1-362E2308EE37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1463F356-F0F1-4FE8-8A44-EA852CB0ED79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="183">
   <si>
     <t>Name</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>Ambidextrous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Increase FIN attribute by 1. You do not suffer a penalty for using items in your non-dominant hand.  </t>
   </si>
   <si>
     <t>Animagus</t>
@@ -426,9 +423,6 @@
     <t>Wandwork</t>
   </si>
   <si>
-    <t xml:space="preserve">You are considered proficient in the use of a magical wand. You may add your proficiency bonus to accuracy checks when casting spells. </t>
-  </si>
-  <si>
     <t>Elemental Master</t>
   </si>
   <si>
@@ -485,9 +479,6 @@
   </si>
   <si>
     <t>When attacked, you may sacrifice your Instinct reaction (guaranteeing all attacks made against you this turn will hit) to retaliate against one attacker. Make an attack action against one aggressor as if you had a free major action.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain proficiency with armour. When taken a second time, this skill reduces bludgeoning, slashing and piercing damage taken by an amount equal to your Expertise bonus. </t>
   </si>
   <si>
     <t>For each level of this skill, you can pick a new language to learn. Each language must be declared when levelling up. To learn Parseltongue, you require EVL to be greater than 4.</t>
@@ -587,6 +578,25 @@
   </si>
   <si>
     <t>Gain a temporary bonus of +3 to your dodge value whenever you take a movement action.</t>
+  </si>
+  <si>
+    <t>Sprint Start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may add your expertise bonus to your speed statistic from the moment you begin moving, without needing the one-turn `warm-up\apos{} normally required. </t>
+  </si>
+  <si>
+    <t>Ability to cast magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are considered proficient in the use of a magical wand. You may add your proficiency bonus to accuracy checks when casting spells. 
+This applies only when using a wand which has `chosen\apos{} you, or which you have rightfully taken from the previous owner. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase FIN attribute by 1. You are considered proficient in two-weapon fighting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gain proficiency with medium and heavy armours. </t>
   </si>
 </sst>
 </file>
@@ -944,11 +954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D78"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C44" sqref="C44"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -993,923 +1003,940 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
         <v>129</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" t="s">
         <v>30</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
         <v>38</v>
-      </c>
-      <c r="D24" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
         <v>43</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>45</v>
       </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D29" t="s">
         <v>46</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D29" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30">
         <v>5</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31">
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B33">
         <v>5</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" t="s">
         <v>53</v>
-      </c>
-      <c r="D34" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>5</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36">
         <v>5</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B37">
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>5</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>5</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B41">
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D42" t="s">
         <v>68</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D42" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>71</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" t="s">
         <v>72</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D44" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B46">
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47">
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" t="s">
         <v>77</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D48" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51">
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" t="s">
         <v>83</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>84</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>89</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" t="s">
         <v>92</v>
-      </c>
-      <c r="D58" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>93</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D59" t="s">
         <v>94</v>
       </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D59" t="s">
+    </row>
+    <row r="60" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D60" t="s">
         <v>96</v>
       </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D60" t="s">
+    </row>
+    <row r="61" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D61" t="s">
         <v>98</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D61" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B62">
-        <v>1</v>
-      </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="D62" s="3" t="s">
+    </row>
+    <row r="63" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="51" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" t="s">
         <v>103</v>
       </c>
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="64" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>105</v>
-      </c>
       <c r="B64">
         <v>1</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" t="s">
         <v>106</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D65" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D67" t="s">
         <v>109</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="B68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
+      </c>
+      <c r="D68" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>117</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-      <c r="C74" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D74" t="s">
-        <v>120</v>
+      <c r="C74" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D75" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C76" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D76" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="D77" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D56" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D78">
       <sortCondition ref="A1:A56"/>
     </sortState>
   </autoFilter>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1463F356-F0F1-4FE8-8A44-EA852CB0ED79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DBB2DE4-2746-44A2-A291-4FC94CCFB329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$56</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="0">Sheet1!$A$1:$D$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$55</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="0">Sheet1!$A$1:$D$53</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="181">
   <si>
     <t>Name</t>
   </si>
@@ -284,9 +284,6 @@
     <t>Rapid Swing</t>
   </si>
   <si>
-    <t>Raw Power</t>
-  </si>
-  <si>
     <t>Sentinel</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
   </si>
   <si>
     <t>Shadow Walker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may add your Expertise bonus to your Dodge value whenever taking a `considered movment’. </t>
   </si>
   <si>
     <t>Signature Spell</t>
@@ -519,9 +513,6 @@
   </si>
   <si>
     <t xml:space="preserve">At the beginning of a combat encounter, you may designate 1d4 targets that you are always aware of. You are immune to oppotrunity attacks from these targets, until they peform a successful Hide action. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">For every level taken in this skill, designate a spell which is your `signature’. These spells must be one level below your current level, but you may double your proficiency bonus when casting these spells.  </t>
   </si>
   <si>
     <t xml:space="preserve">Spells that normally require an incantation can be used silently.
@@ -568,13 +559,7 @@
     <t>When you gain this skill, your Max HP increases by an amount equal to twice your level. Thereafter, gain +2 to your max HP every time you level up.</t>
   </si>
   <si>
-    <t xml:space="preserve">When an opponent uses the `brace’ minor action, you gain check advantage on the accuracy check. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Increase ATH attribute by 1, and hone your instincts such that you always land on your feet when falling or thrown (and strike a cool pose when doing so). Negate the {\it Prone Position} status, unless you choose otherwise. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once per day, may use perform a POW check to cast a spell, rather than the specified check, at the cost of doubling the FP cost of the cast.  In addition, gain 3 `free\apos{} PP, which do not add to the FP or DV of the spell. </t>
   </si>
   <si>
     <t>Gain a temporary bonus of +3 to your dodge value whenever you take a movement action.</t>
@@ -597,6 +582,15 @@
   </si>
   <si>
     <t xml:space="preserve">Gain proficiency with medium and heavy armours. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may add your Expertise bonus to your Dodge value whenever taking a `considered movment\apos{}. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For every level taken in this skill, designate a spell which is your `signature\apos{}. These spells must be one level below your current level, but you may double your proficiency bonus when casting these spells.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When an opponent uses the `brace\apos{} minor action, you gain check advantage on the accuracy check. </t>
   </si>
 </sst>
 </file>
@@ -954,11 +948,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:XFD52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1003,7 +997,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1014,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1028,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -1042,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1053,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -1067,7 +1061,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1078,18 +1072,18 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1133,21 +1127,21 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
         <v>127</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1158,7 +1152,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1169,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1180,7 +1174,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
@@ -1239,7 +1233,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1264,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1286,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" t="s">
         <v>43</v>
@@ -1300,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -1311,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
         <v>46</v>
@@ -1336,7 +1330,7 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1347,12 +1341,12 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B33">
         <v>5</v>
@@ -1456,7 +1450,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1467,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1478,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D42" t="s">
         <v>68</v>
@@ -1503,7 +1497,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D44" t="s">
         <v>72</v>
@@ -1517,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1528,7 +1522,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1539,7 +1533,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1550,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D48" t="s">
         <v>77</v>
@@ -1564,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1575,7 +1569,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -1586,10 +1580,10 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>81</v>
       </c>
@@ -1597,31 +1591,34 @@
         <v>1</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="D52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>84</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1632,64 +1629,64 @@
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>159</v>
-      </c>
-      <c r="D55" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>89</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>90</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="D58" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>93</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-      <c r="C59" s="3" t="s">
-        <v>162</v>
+      <c r="C59" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="D59" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -1697,13 +1694,13 @@
         <v>1</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D60" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>97</v>
       </c>
@@ -1711,27 +1708,27 @@
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D61" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="D61" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D62" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>102</v>
       </c>
@@ -1739,27 +1736,27 @@
         <v>1</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D64" t="s">
         <v>104</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D64" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>105</v>
       </c>
@@ -1767,74 +1764,71 @@
         <v>1</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D67" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>108</v>
+      </c>
+      <c r="B68">
+        <v>5</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D65" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D66" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D67" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>177</v>
-      </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D68" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="B69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
@@ -1845,73 +1839,76 @@
         <v>1</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B72">
-        <v>1</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>114</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
-      <c r="C73" s="3" t="s">
-        <v>115</v>
+      <c r="C73" s="1" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B74">
-        <v>1</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>172</v>
+      <c r="D74" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D75" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B76">
         <v>1</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D76" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>121</v>
-      </c>
-      <c r="D76" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>126</v>
       </c>
       <c r="B77">
         <v>1</v>
@@ -1919,25 +1916,11 @@
       <c r="C77" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D77" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>123</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>173</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D56" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D78">
-      <sortCondition ref="A1:A56"/>
+  <autoFilter ref="A1:D55" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D77">
+      <sortCondition ref="A1:A55"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$40</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$40</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$52</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -199,7 +199,7 @@
     <t xml:space="preserve">Merciful</t>
   </si>
   <si>
-    <t xml:space="preserve">You may attempt to turn a lethal blow into a knockout strike. When performing an attack that would otherwise kill the target, perform a DV 8 \attFIN{} check. If it passes, the target is knocked unconscious, rather than killed. </t>
+    <t xml:space="preserve">You may attempt to turn a lethal blow into a knockout strike. When performing an attack that would otherwise kill the target, perform a DV 8 \attFin{} check. If it passes, the target is knocked unconscious, rather than killed. </t>
   </si>
   <si>
     <t xml:space="preserve">Mimicry</t>
@@ -370,7 +370,7 @@
     <t xml:space="preserve">Weapons: Long Range Threat</t>
   </si>
   <si>
-    <t xml:space="preserve">You are considered proficient in the use of more complex ranged weapons: bows &amp; crossbows</t>
+    <t xml:space="preserve">You are considered proficient in the use of more complex ranged weapons: bows \&amp; crossbows</t>
   </si>
   <si>
     <t xml:space="preserve">Weapons: Simple Ranged Training</t>
@@ -504,17 +504,17 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.57"/>
   </cols>
   <sheetData>
@@ -1164,7 +1164,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D52"/>
+  <autoFilter ref="A1:D40"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$40</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$39</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$52</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$35</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -48,13 +48,13 @@
     <t xml:space="preserve">Ambidextrous</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase \attFin{} attribute by 1. You are considered proficient in two-weapon fighting. </t>
+    <t xml:space="preserve">Increase \attFin{} attribute by 1. You are considered proficient in two-weapon fighting, and may use your off-hand as effectively as your dominant one.  </t>
   </si>
   <si>
     <t xml:space="preserve">Animagus</t>
   </si>
   <si>
-    <t xml:space="preserve">Transform into an non-magical animal at will. This animal must be chosen at the moment you acquire this skill, and cannot be changed afterwards. Transforming costs 5FP and constitutes a major action.</t>
+    <t xml:space="preserve">Transform into an non-magical animal at will. This animal must be chosen at the moment you acquire this skill, and cannot be changed afterwards. Transforming costs 25FP and constitutes a major action.</t>
   </si>
   <si>
     <t xml:space="preserve">Expert Thaumaturgy</t>
@@ -103,12 +103,6 @@
   </si>
   <si>
     <t xml:space="preserve">Increases \attPerShort{} attribute by 1, and the effective range of your vision by 50\% in all conditions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emergency Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may take a major action to perform a {\it stabilization} action on a target you can touch. Perform a DV 10 INT check, if successful, remove the {\it Critical Condition} status and apply the {\it Critical but Stable} condition</t>
   </si>
   <si>
     <t xml:space="preserve">Extended Range</t>
@@ -127,21 +121,6 @@
 {\bf Rat:} +1 to resist checks</t>
   </si>
   <si>
-    <t xml:space="preserve">Fast Caster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">May cast an additional spell as part of the standard spellcasting major action. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adept Battlemage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flying Lessons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gain the ability to fly a broomstick. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Focussed Caster</t>
   </si>
   <si>
@@ -190,12 +169,6 @@
     <t xml:space="preserve">For each level of this skill, you can pick a new language to learn. Each language must be declared when levelling up. To learn Parseltongue, you require EVL to be greater than 4.</t>
   </si>
   <si>
-    <t xml:space="preserve">Meditation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For each level of this skill, increase the FP regeneration rate by 2FP per turn. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Merciful</t>
   </si>
   <si>
@@ -205,7 +178,8 @@
     <t xml:space="preserve">Mimicry</t>
   </si>
   <si>
-    <t xml:space="preserve">You can mimic the voice of another sapient, or the call of an animal, provided you have heard them for at least 1 minute previously. </t>
+    <t xml:space="preserve">Increase your \attChr{} attribute by 1. 
+You can mimic the voice of another sapient, or the call of an animal, provided you have heard them for at least 1 minute previously. </t>
   </si>
   <si>
     <t xml:space="preserve">CHR $&gt; 13$</t>
@@ -267,24 +241,20 @@
     <t xml:space="preserve">Spells that normally require an incantation can be used silently. You may only silently cast spells which you have already memorised, but you must perform a casting check for all spells cast silently.</t>
   </si>
   <si>
-    <t xml:space="preserve">Spellmaker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once per week, you may design your own spell (with GMs consent) by taking a full day to research it. The GM will decide the appropriate type and level.The spell must be in a discipline your are proficient in, and you must successfully cast it within three attempts for the spellmaking to be successful. 
-If successful, the spellmaker memorises the spell. They may also transcribe the spell onto paper so others can book-cast it.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spellsinger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replace your wand with your music: perform all illusion \&amp; recuperation magic with your instrument of choice, using a CHR (performance) check. Spells take twice as long to cast in this fashion, and you may not use a quick attack. 
-Cannot be used in conjunction with the Silent Magic skill</t>
+    <t xml:space="preserve">Runecaster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Once per day, you may utilise your knowledge of the ancient {\it Enchanting Runes} to form a magic spell from the endless chaos of primordial magic. 
+As with the usual enchanting process, you must trace the runes out in the air over the course of a major action, describing what effect you would like this runechain to have. The GM then decides the spellschool and the difficulty of the described spell, based on the magnitude of the effect you are trying to create. You must then perform a casting check to realise the runecast. 
+Runecasting is almost always weaker than a spell cast using the normal methods, though it provides much greater flexibility. You cannot runecast to exactly replicate the effects of an existing spell. 
+After successfully performing a Runecast, you may spend 6 hours translating the runechain into a conventional incantation-based spell, with the discipline and DV set by the GM. You may then memory-cast this spell, and others may book-cast it, as they would any other spell.  </t>
   </si>
   <si>
     <t xml:space="preserve">Sprint Start</t>
   </si>
   <si>
-    <t xml:space="preserve">You may add your expertise bonus to your speed statistic from the moment you begin moving, without needing the one-turn `warm-up\apos{} normally required. </t>
+    <t xml:space="preserve">Increase \attPhys{} attribute by 1. 
+You may also add your expertise bonus to your speed statistic from the moment you begin moving, without needing the one-turn `warm-up\apos{} normally required. </t>
   </si>
   <si>
     <t xml:space="preserve">Speed Proficiency</t>
@@ -305,7 +275,7 @@
     <t xml:space="preserve">Surge</t>
   </si>
   <si>
-    <t xml:space="preserve">You may take one extra major action in your turn. This skill cannot be used again until you rest for 4+ hours. </t>
+    <t xml:space="preserve">You may take one extra major action in your turn. This skill cannot be used again until you complete a long rest. </t>
   </si>
   <si>
     <t xml:space="preserve">Tool-User</t>
@@ -317,7 +287,7 @@
     <t xml:space="preserve">Undead Benefactor</t>
   </si>
   <si>
-    <t xml:space="preserve">Increase INT attribute by 1. Healing spells now also work on the undead. 
+    <t xml:space="preserve">Increase INT attribute by 1. Healing spells now also work on the undead and Unliving. 
  </t>
   </si>
   <si>
@@ -389,6 +359,21 @@
   </si>
   <si>
     <t xml:space="preserve">You are considered proficient in the use of firearms weapons. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supportive Ally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If an ally within 5m rolls a 1 on an accuracy check, you may sacrifice a minor action you were going to perform this turn in order to allow them to re-roll the offending dice. 
+If you were performing a full-turn movement or attack, this is then converted into a minor movement or a quick attack. 
+This skill can only be used once per long rest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reload Expert</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Increase your \attFin{} attribute by 1. 
+Your nimble fingers mean that reloading crossbows and firearms weapons takes only a minor action </t>
   </si>
 </sst>
 </file>
@@ -398,12 +383,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -420,16 +404,135 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -437,8 +540,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -462,6 +580,57 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -481,14 +650,91 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+  <cellStyles count="23">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -504,18 +750,19 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C51" activeCellId="0" sqref="C51"/>
+      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="0" width="8.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>6</v>
       </c>
@@ -648,29 +895,30 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>30</v>
       </c>
@@ -680,7 +928,6 @@
       <c r="C14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
@@ -689,14 +936,14 @@
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>35</v>
       </c>
@@ -737,7 +984,7 @@
         <v>42</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>43</v>
@@ -748,13 +995,13 @@
         <v>44</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>46</v>
       </c>
@@ -764,27 +1011,27 @@
       <c r="C21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D21" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="B22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>52</v>
@@ -795,49 +1042,49 @@
         <v>53</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="D24" s="0" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
+      <c r="C25" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>62</v>
       </c>
@@ -847,18 +1094,18 @@
       <c r="C28" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="0" t="s">
         <v>66</v>
       </c>
     </row>
@@ -867,13 +1114,13 @@
         <v>67</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>69</v>
       </c>
@@ -884,7 +1131,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>71</v>
       </c>
@@ -894,18 +1141,18 @@
       <c r="C32" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D32" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="0" t="s">
         <v>75</v>
       </c>
     </row>
@@ -914,24 +1161,24 @@
         <v>76</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C34" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>78</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>80</v>
       </c>
@@ -942,39 +1189,42 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" s="0" t="s">
         <v>88</v>
       </c>
     </row>
@@ -996,18 +1246,18 @@
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>93</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1018,14 +1268,11 @@
       <c r="B43" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>97</v>
       </c>
@@ -1035,109 +1282,78 @@
       <c r="C44" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="0" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1164,7 +1380,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D40"/>
+  <autoFilter ref="A1:D35"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$35</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$47</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$34</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$47</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$35</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -250,6 +250,9 @@
 After successfully performing a Runecast, you may spend 6 hours translating the runechain into a conventional incantation-based spell, with the discipline and DV set by the GM. You may then memory-cast this spell, and others may book-cast it, as they would any other spell.  </t>
   </si>
   <si>
+    <t xml:space="preserve">Adept Spellcaster</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sprint Start</t>
   </si>
   <si>
@@ -302,9 +305,6 @@
   <si>
     <t xml:space="preserve">You are considered proficient in the use of a magical wand. You may add your proficiency bonus to accuracy checks when casting spells. 
 This applies only when using a wand which has `chosen\apos{} you, or which you have rightfully taken from the previous owner. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ability to cast magic</t>
   </si>
   <si>
     <t xml:space="preserve">Weak Spot</t>
@@ -383,11 +383,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -404,135 +405,16 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -540,23 +422,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -580,57 +447,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -650,91 +466,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -750,9 +489,9 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1130,85 +869,88 @@
       <c r="C31" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="D31" s="0" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>67</v>
@@ -1216,15 +958,12 @@
     </row>
     <row r="39" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="0" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1380,7 +1119,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D35"/>
+  <autoFilter ref="A1:D47"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$47</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$34</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$35</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$46</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$33</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$34</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -239,18 +239,6 @@
   </si>
   <si>
     <t xml:space="preserve">Spells that normally require an incantation can be used silently. You may only silently cast spells which you have already memorised, but you must perform a casting check for all spells cast silently.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Runecaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Once per day, you may utilise your knowledge of the ancient {\it Enchanting Runes} to form a magic spell from the endless chaos of primordial magic. 
-As with the usual enchanting process, you must trace the runes out in the air over the course of a major action, describing what effect you would like this runechain to have. The GM then decides the spellschool and the difficulty of the described spell, based on the magnitude of the effect you are trying to create. You must then perform a casting check to realise the runecast. 
-Runecasting is almost always weaker than a spell cast using the normal methods, though it provides much greater flexibility. You cannot runecast to exactly replicate the effects of an existing spell. 
-After successfully performing a Runecast, you may spend 6 hours translating the runechain into a conventional incantation-based spell, with the discipline and DV set by the GM. You may then memory-cast this spell, and others may book-cast it, as they would any other spell.  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adept Spellcaster</t>
   </si>
   <si>
     <t xml:space="preserve">Sprint Start</t>
@@ -489,9 +477,9 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D32" activeCellId="0" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,235 +847,222 @@
         <v>68</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>69</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="48.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="0" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="B33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="B34" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="3" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="B37" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="D37" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="B38" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C38" s="3" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C41" s="1" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="B42" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C47" s="1" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="B48" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C48" s="1" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="B49" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1119,7 +1094,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D47"/>
+  <autoFilter ref="A1:D46"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$46</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$33</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$34</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -261,12 +261,6 @@
   </si>
   <si>
     <t xml:space="preserve">Increase \attPhysShort{} attribute by 1, and hone your instincts such that you always land on your feet when falling or thrown (and strike a cool pose when doing so). Negate the {\it Prone Position} status, unless you choose otherwise. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You may take one extra major action in your turn. This skill cannot be used again until you complete a long rest. </t>
   </si>
   <si>
     <t xml:space="preserve">Tool-User</t>
@@ -477,9 +471,9 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="bottomLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -890,11 +884,11 @@
       <c r="B34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>78</v>
       </c>
@@ -905,7 +899,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>80</v>
       </c>
@@ -915,22 +909,22 @@
       <c r="C36" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D36" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>84</v>
       </c>
@@ -963,7 +957,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>90</v>
       </c>
@@ -974,7 +968,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>92</v>
       </c>
@@ -1029,7 +1023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>102</v>
       </c>
@@ -1040,7 +1034,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="83.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>104</v>
       </c>
@@ -1051,17 +1045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="36.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1094,7 +1078,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D46"/>
+  <autoFilter ref="A1:D33"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/CoreRulebook/Data/skills.xlsx
+++ b/CoreRulebook/Data/skills.xlsx
@@ -11,9 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$33</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">Sheet1!$A$1:$D$33</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$D$33</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -356,6 +356,13 @@
   <si>
     <t xml:space="preserve">Increase your \attFin{} attribute by 1. 
 Your nimble fingers mean that reloading crossbows and firearms weapons takes only a minor action </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last Resort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Every time you take this Skill, you may choose an additional Beginner level spell.  
+Whilst your FP is at 0, you may still cast these spells for no additional cost. </t>
   </si>
 </sst>
 </file>
@@ -449,12 +456,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
@@ -473,17 +480,16 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B42" activeCellId="0" sqref="B42"/>
+      <selection pane="bottomLeft" activeCell="C47" activeCellId="0" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="95.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="35.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="5" style="0" width="8.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1045,6 +1051,18 @@
         <v>105</v>
       </c>
     </row>
+    <row r="49" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1078,7 +1096,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:D33"/>
+  <autoFilter ref="A1:D45"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
